--- a/6/3/2/Total posiciones netas y suscripciones promedio 2007 a 2021 - Mensual.xlsx
+++ b/6/3/2/Total posiciones netas y suscripciones promedio 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Serie</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -902,7 +905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2805,10 +2808,10 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>2544</v>
+        <v>2547</v>
       </c>
       <c r="C173">
-        <v>10557</v>
+        <v>10556</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2816,7 +2819,7 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="C174">
         <v>9783</v>
@@ -2827,10 +2830,21 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>2911</v>
+        <v>2913</v>
       </c>
       <c r="C175">
         <v>8960</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176">
+        <v>3275</v>
+      </c>
+      <c r="C176">
+        <v>7657</v>
       </c>
     </row>
   </sheetData>

--- a/6/3/2/Total posiciones netas y suscripciones promedio 2007 a 2021 - Mensual.xlsx
+++ b/6/3/2/Total posiciones netas y suscripciones promedio 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>Serie</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -905,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2847,6 +2850,14 @@
         <v>7657</v>
       </c>
     </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177">
+        <v>3450</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/3/2/Total posiciones netas y suscripciones promedio 2007 a 2021 - Mensual.xlsx
+++ b/6/3/2/Total posiciones netas y suscripciones promedio 2007 a 2021 - Mensual.xlsx
@@ -2822,7 +2822,7 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>2100</v>
+        <v>2023</v>
       </c>
       <c r="C174">
         <v>9783</v>
@@ -2833,10 +2833,10 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>2913</v>
+        <v>2886</v>
       </c>
       <c r="C175">
-        <v>8960</v>
+        <v>8962</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2844,18 +2844,21 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>3275</v>
+        <v>3224</v>
       </c>
       <c r="C176">
-        <v>7657</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>7649</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>178</v>
       </c>
       <c r="B177">
-        <v>3450</v>
+        <v>3404</v>
+      </c>
+      <c r="C177">
+        <v>7422</v>
       </c>
     </row>
   </sheetData>

--- a/6/3/2/Total posiciones netas y suscripciones promedio 2007 a 2021 - Mensual.xlsx
+++ b/6/3/2/Total posiciones netas y suscripciones promedio 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Serie</t>
   </si>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -908,7 +911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2861,6 +2864,14 @@
         <v>7422</v>
       </c>
     </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178">
+        <v>3737</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/3/2/Total posiciones netas y suscripciones promedio 2007 a 2021 - Mensual.xlsx
+++ b/6/3/2/Total posiciones netas y suscripciones promedio 2007 a 2021 - Mensual.xlsx
@@ -2836,7 +2836,7 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>2886</v>
+        <v>2890</v>
       </c>
       <c r="C175">
         <v>8962</v>
@@ -2847,7 +2847,7 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>3224</v>
+        <v>3219</v>
       </c>
       <c r="C176">
         <v>7649</v>
@@ -2858,7 +2858,7 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="C177">
         <v>7422</v>
@@ -2869,7 +2869,10 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>3737</v>
+        <v>3731</v>
+      </c>
+      <c r="C178">
+        <v>7685</v>
       </c>
     </row>
   </sheetData>

--- a/6/3/2/Total posiciones netas y suscripciones promedio 2007 a 2021 - Mensual.xlsx
+++ b/6/3/2/Total posiciones netas y suscripciones promedio 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Serie</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -911,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2875,6 +2878,14 @@
         <v>7685</v>
       </c>
     </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179">
+        <v>3871</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
